--- a/results/tables/Mean_F1_table.xlsx
+++ b/results/tables/Mean_F1_table.xlsx
@@ -436,155 +436,155 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="C4">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="D4">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="E4">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="D5">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="E5">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="F5">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="C6">
         <v>0.75</v>
       </c>
       <c r="D6">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="E6">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="C7">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="D7">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="E7">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F7">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="C8">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="D8">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E8">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F8">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="C9">
-        <v>0.64</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="E9">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="F9">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="C10">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="D10">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="F10">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="11">

--- a/results/tables/Mean_F1_table.xlsx
+++ b/results/tables/Mean_F1_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,66 +568,88 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="C10">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="E10">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F10">
-        <v>0.54</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="C11">
+        <v>0.64</v>
+      </c>
+      <c r="D11">
         <v>0.6</v>
       </c>
-      <c r="D11">
-        <v>0.51</v>
-      </c>
       <c r="E11">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F11">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0.36</v>
+      </c>
+      <c r="C12">
+        <v>0.6</v>
+      </c>
+      <c r="D12">
+        <v>0.51</v>
+      </c>
+      <c r="E12">
+        <v>0.68</v>
+      </c>
+      <c r="F12">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>VSEARCH</t>
         </is>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>0.45</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>0.66</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0.59</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>0.71</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.51</v>
       </c>
     </row>

--- a/results/tables/Mean_F1_table.xlsx
+++ b/results/tables/Mean_F1_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,198 +458,242 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.58</v>
+        <v>0.03</v>
       </c>
       <c r="C5">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>0.28</v>
       </c>
       <c r="D6">
-        <v>0.68</v>
+        <v>0.27</v>
       </c>
       <c r="E6">
-        <v>0.8100000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="F6">
-        <v>0.59</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="C7">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="D7">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="E7">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B8">
         <v>0.54</v>
       </c>
       <c r="C8">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="D8">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E8">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F8">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="C9">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="D9">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
       <c r="E9">
         <v>0.87</v>
       </c>
       <c r="F9">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="C10">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="D10">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E10">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F10">
-        <v>0.77</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="C11">
-        <v>0.64</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D11">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="E11">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="F11">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="C12">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="D12">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="E12">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="F12">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B13">
         <v>0.45</v>
       </c>
       <c r="C13">
+        <v>0.64</v>
+      </c>
+      <c r="D13">
+        <v>0.6</v>
+      </c>
+      <c r="E13">
+        <v>0.67</v>
+      </c>
+      <c r="F13">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>0.36</v>
+      </c>
+      <c r="C14">
+        <v>0.6</v>
+      </c>
+      <c r="D14">
+        <v>0.51</v>
+      </c>
+      <c r="E14">
+        <v>0.68</v>
+      </c>
+      <c r="F14">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>0.45</v>
+      </c>
+      <c r="C15">
         <v>0.66</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>0.59</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>0.71</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>0.51</v>
       </c>
     </row>

--- a/results/tables/Mean_F1_table.xlsx
+++ b/results/tables/Mean_F1_table.xlsx
@@ -458,7 +458,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B5">
@@ -480,23 +480,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="C6">
         <v>0.28</v>
       </c>
       <c r="D6">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="E6">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="F6">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">

--- a/results/tables/Mean_F1_table.xlsx
+++ b/results/tables/Mean_F1_table.xlsx
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>0.53</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">

--- a/results/tables/Mean_F1_table.xlsx
+++ b/results/tables/Mean_F1_table.xlsx
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="D12">
         <v>0.74</v>
       </c>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="F12">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="13">
